--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_excess_demand.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/Output Data (New Detrended ED)/results_excess_demand.xlsx
@@ -757,49 +757,49 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1350456157814323</v>
+        <v>-0.1350456157814323</v>
       </c>
       <c r="D6" t="n">
-        <v>1.257520228398636</v>
+        <v>-1.257520228398636</v>
       </c>
       <c r="E6" t="n">
+        <v>0.03187866994171053</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03984833742713816</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.03984833742713816</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01017239069785181</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.004101513501587363</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.03376140394535807</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5580480148758875</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>-0.03187866994171053</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.03984833742713816</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03984833742713816</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.01017239069785181</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.004101513501587363</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.03376140394535807</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5580480148758875</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.03187866994171053</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -810,37 +810,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.955177261542444</v>
+        <v>3.033475851832293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7498346015747481</v>
+        <v>1.404423425667004</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.825904147119429</v>
+        <v>2.333748234515144</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01708824420428384</v>
+        <v>0.02956460485714787</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02847556053056823</v>
+        <v>0.04344719331400507</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00738794315385611</v>
+        <v>0.007583689629580733</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03586350368442434</v>
+        <v>-0.03586350368442434</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07716171673985922</v>
+        <v>0.08510904036901082</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02761620256373006</v>
+        <v>0.03781145559094398</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2212200543390451</v>
+        <v>0.3173444524713929</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02869080294753948</v>
+        <v>-0.02869080294753948</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -866,37 +866,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.331212804213879</v>
+        <v>2.435269973558157</v>
       </c>
       <c r="C8" t="n">
-        <v>1.121112967355705</v>
+        <v>1.494797472810345</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3603740441212242</v>
+        <v>0.9899373170070911</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008720452993120032</v>
+        <v>0.02748551093365785</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0215611781515911</v>
+        <v>0.04594901787945804</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01071597516439081</v>
+        <v>0.01367186456347613</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03227715331598191</v>
+        <v>-0.03227715331598191</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2049497502692993</v>
+        <v>0.3219839216964972</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06349962837704561</v>
+        <v>0.0932007275530939</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5014982961779714</v>
+        <v>0.6910438206739791</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02582172265278553</v>
+        <v>-0.02582172265278553</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -922,37 +922,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5050261742735711</v>
+        <v>-0.4918180413846382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.614494612899931</v>
+        <v>0.4889559261566025</v>
       </c>
       <c r="D9" t="n">
-        <v>2.56110762102043</v>
+        <v>-1.521149312037178</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.005910890210055048</v>
+        <v>0.02014971918627331</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01959602825567684</v>
+        <v>0.04149175744439824</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009453409728706879</v>
+        <v>0.01244231946001453</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02904943798438372</v>
+        <v>-0.02904943798438372</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2521395744172452</v>
+        <v>0.3221150184318929</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07581917543385958</v>
+        <v>0.09235191978283257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6551219494029542</v>
+        <v>0.8132828022131297</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02323955038750698</v>
+        <v>-0.02323955038750698</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -978,37 +978,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.207431862807099</v>
+        <v>1.629142583769879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7384638597241548</v>
+        <v>1.372399343264576</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.226541803945888</v>
+        <v>0.312192632868215</v>
       </c>
       <c r="E10" t="n">
-        <v>1.122955146761959e-05</v>
+        <v>0.01894900608645301</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01367250480022072</v>
+        <v>0.04265967010538457</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01247198938572463</v>
+        <v>0.01651517591943923</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02614449418594535</v>
+        <v>-0.02614449418594535</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2130870828138157</v>
+        <v>0.2671796322186962</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0833291657910278</v>
+        <v>0.1135673037672558</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7958041196907829</v>
+        <v>1.200316432672484</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02091559534875628</v>
+        <v>-0.02091559534875628</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1034,37 +1034,37 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6492371312752012</v>
+        <v>1.09669126776063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.95021539127737</v>
+        <v>1.247606707860849</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9781901069437945</v>
+        <v>1.053002158787586</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003823894618425137</v>
+        <v>0.01716865635353405</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.009434962553438186</v>
+        <v>0.04278694885619162</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01409508221391263</v>
+        <v>0.0192569040888408</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02353004476735081</v>
+        <v>-0.02353004476735081</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2438205391115124</v>
+        <v>0.3667293509642526</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1054548913251634</v>
+        <v>0.1495682114181214</v>
       </c>
       <c r="L11" t="n">
-        <v>0.778909991074431</v>
+        <v>1.065830822154082</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01882403581388065</v>
+        <v>-0.01882403581388065</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1090,37 +1090,37 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6932961028494358</v>
+        <v>0.9661128894336768</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6573953150784361</v>
+        <v>1.002230277863819</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5198442967981843</v>
+        <v>0.5730749129725048</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007191035774803461</v>
+        <v>0.01566448554580287</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.005348717819579515</v>
+        <v>0.04284922660304073</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01582832247103622</v>
+        <v>0.02167218631242499</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02117704029061573</v>
+        <v>-0.02117704029061573</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2698579398840911</v>
+        <v>0.3784335725659</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1156844852576946</v>
+        <v>0.1595293031680178</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5351925444756737</v>
+        <v>0.7058141420899642</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01694163223249259</v>
+        <v>-0.01694163223249259</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1146,37 +1146,37 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9885557356920609</v>
+        <v>1.347615310988741</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8050508408920708</v>
+        <v>1.265609670876863</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1845750002837073</v>
+        <v>-0.03383035390635469</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01079845171450392</v>
+        <v>0.01550616814469538</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0007596244512877923</v>
+        <v>0.044100560851451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01829971181026637</v>
+        <v>0.02504122458989684</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01905933626155416</v>
+        <v>-0.01905933626155416</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2644561696054208</v>
+        <v>0.3939498850297049</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1261798941929028</v>
+        <v>0.1817829874865551</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5356417773257627</v>
+        <v>0.8998464815346336</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01524746900924333</v>
+        <v>-0.01524746900924333</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1202,37 +1202,37 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.846018819453352</v>
+        <v>1.174771962669332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8853369755822739</v>
+        <v>1.218307249945324</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4363140913248819</v>
+        <v>0.6924288153524421</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01367947605165481</v>
+        <v>0.01526507485404305</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003261356223501002</v>
+        <v>0.04513155713196892</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02041475885889975</v>
+        <v>0.02797815449657018</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01715340263539875</v>
+        <v>-0.01715340263539875</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2921590609346112</v>
+        <v>0.4253527446773827</v>
       </c>
       <c r="K14" t="n">
-        <v>0.145091449930558</v>
+        <v>0.2064634410173336</v>
       </c>
       <c r="L14" t="n">
-        <v>0.611412547893722</v>
+        <v>0.9162588444180174</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.013722722108319</v>
+        <v>-0.013722722108319</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1258,37 +1258,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9516340002081428</v>
+        <v>1.252309370082429</v>
       </c>
       <c r="C15" t="n">
-        <v>0.835049961548643</v>
+        <v>1.181052235236222</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.002432539955457502</v>
+        <v>0.7326000176901807</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01650433693602111</v>
+        <v>0.01548904315744431</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007355781487561235</v>
+        <v>0.04654699029363513</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02279384385942011</v>
+        <v>0.03110892792177625</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01543806237185887</v>
+        <v>-0.01543806237185887</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3090547793631619</v>
+        <v>0.4349653713233156</v>
       </c>
       <c r="K15" t="n">
-        <v>0.158966602561704</v>
+        <v>0.223708196581013</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5518877341638434</v>
+        <v>0.8000705075163044</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0123504498974871</v>
+        <v>-0.0123504498974871</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.002325580223061</v>
+        <v>1.308016339896571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9516396019796918</v>
+        <v>1.292337893449397</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2958562891195197</v>
+        <v>0.4345691839392339</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01918369331551368</v>
+        <v>0.01606759258533319</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01140540167530477</v>
+        <v>0.04827322490619067</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02529965780997776</v>
+        <v>0.03437896877151768</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01389425613467299</v>
+        <v>-0.01389425613467299</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3287742640476682</v>
+        <v>0.4621407557971121</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1752320849176435</v>
+        <v>0.2459569403212392</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5994114051165786</v>
+        <v>0.8608931898110517</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01111540490773839</v>
+        <v>-0.01111540490773839</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1370,37 +1370,37 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.005098291051001</v>
+        <v>1.287486073048498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.978251121567938</v>
+        <v>1.273552558598511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1744287384215389</v>
+        <v>0.4885100821517665</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02164299811557045</v>
+        <v>0.01677832701983169</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01530757301639958</v>
+        <v>0.05010251447534461</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02781240353760527</v>
+        <v>0.03759768395413893</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01250483052120569</v>
+        <v>-0.01250483052120569</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3590147956092258</v>
+        <v>0.4911272232713605</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1936810611624936</v>
+        <v>0.2680617335576246</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6481132455642158</v>
+        <v>0.8473625992776588</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01000386441696455</v>
+        <v>-0.01000386441696455</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1426,37 +1426,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0603523122944</v>
+        <v>1.327010661585274</v>
       </c>
       <c r="C18" t="n">
-        <v>1.002328492470844</v>
+        <v>1.294312234773234</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1640632062434099</v>
+        <v>0.6569426266948166</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02404175242204896</v>
+        <v>0.01773681940863464</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01920893684925614</v>
+        <v>0.05216955807718723</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03046328431834126</v>
+        <v>0.04091521060810211</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01125434746908512</v>
+        <v>-0.01125434746908512</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.377584607117312</v>
+        <v>0.5057114064226081</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2102865221736737</v>
+        <v>0.288094698810498</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6496582334571679</v>
+        <v>0.8349609858369587</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.009003477975268096</v>
+        <v>-0.009003477975268096</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1482,37 +1482,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.085605471233315</v>
+        <v>1.342616218437394</v>
       </c>
       <c r="C19" t="n">
-        <v>1.070451375328741</v>
+        <v>1.336942900678974</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3848991319360707</v>
+        <v>0.6048985921512477</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02633224524442738</v>
+        <v>0.01885859602960741</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02304838527424794</v>
+        <v>0.05440066387637221</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03317729799642455</v>
+        <v>0.0442717511541956</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01012891272217661</v>
+        <v>-0.01012891272217661</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4003982686919862</v>
+        <v>0.5284614129289347</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2286419908008248</v>
+        <v>0.3098929490638131</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6916128684736416</v>
+        <v>0.8643210255517136</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.008103130177741287</v>
+        <v>-0.008103130177741287</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1538,37 +1538,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.114127971036279</v>
+        <v>1.356191001998909</v>
       </c>
       <c r="C20" t="n">
-        <v>1.090147961452426</v>
+        <v>1.339730107056072</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4821735247055181</v>
+        <v>0.567169987525178</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0285446429471707</v>
+        <v>0.0201184884591035</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0268465964740563</v>
+        <v>0.05677825010915181</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03596261792401525</v>
+        <v>0.04766222865919287</v>
       </c>
       <c r="H20" t="n">
-        <v>0.009116021449958947</v>
+        <v>-0.009116021449958947</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4261123623088293</v>
+        <v>0.5520628940436766</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2471789413694219</v>
+        <v>0.3310539978959293</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7065204736573188</v>
+        <v>0.8489936944795856</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.007292817159967158</v>
+        <v>-0.007292817159967158</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -1594,37 +1594,37 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.147039385294997</v>
+        <v>1.377474745084218</v>
       </c>
       <c r="C21" t="n">
-        <v>1.127414921064895</v>
+        <v>1.366430330457611</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4972948295495763</v>
+        <v>0.6282674093217562</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03070765137763388</v>
+        <v>0.02151804451797724</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03062579708228969</v>
+        <v>0.05931033482686646</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03883021638725274</v>
+        <v>0.05110591552190341</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008204419304963052</v>
+        <v>-0.008204419304963052</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4472796312174575</v>
+        <v>0.5717935589954444</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2653720907681556</v>
+        <v>0.3518824035360161</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7135708919700003</v>
+        <v>0.8432266699701122</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.006563535443970443</v>
+        <v>-0.006563535443970443</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -1650,37 +1650,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.172159444034855</v>
+        <v>1.391916235484635</v>
       </c>
       <c r="C22" t="n">
-        <v>1.167858180564707</v>
+        <v>1.388344932638364</v>
       </c>
       <c r="D22" t="n">
-        <v>0.593091397192836</v>
+        <v>0.6761887028559179</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03281761135068317</v>
+        <v>0.02302608873923098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03437663762287314</v>
+        <v>0.06196968348508175</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04176061499733989</v>
+        <v>0.054585706110615</v>
       </c>
       <c r="H22" t="n">
-        <v>0.007383977374466747</v>
+        <v>-0.007383977374466747</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4701732997947238</v>
+        <v>0.5930692248577747</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2844381494697562</v>
+        <v>0.3731845159184179</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7363835024853801</v>
+        <v>0.8521506612851472</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005907181899573398</v>
+        <v>-0.005907181899573398</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -1706,37 +1706,37 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.200438704928978</v>
+        <v>1.409190394244758</v>
       </c>
       <c r="C23" t="n">
-        <v>1.19250502392188</v>
+        <v>1.401825292180422</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7124013147883681</v>
+        <v>0.6778394592309498</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03489541922088628</v>
+        <v>0.02463745485160546</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03811613212264225</v>
+        <v>0.06475426173324697</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04476171175966233</v>
+        <v>0.0581086820962269</v>
       </c>
       <c r="H23" t="n">
-        <v>0.006645579637020073</v>
+        <v>-0.006645579637020073</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4927298192469495</v>
+        <v>0.6136172726945197</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3034270028814198</v>
+        <v>0.3940833731124659</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7440832530589907</v>
+        <v>0.8456212526541826</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005316463709616059</v>
+        <v>-0.005316463709616059</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -1762,37 +1762,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.227227989184247</v>
+        <v>1.426694419898004</v>
       </c>
       <c r="C24" t="n">
-        <v>1.22628379138851</v>
+        <v>1.42543178361283</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7834894616477068</v>
+        <v>0.7065143813711767</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03694856684635113</v>
+        <v>0.02634225759253331</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04184876005930489</v>
+        <v>0.06765643981928997</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04782978173262295</v>
+        <v>0.0616754181459719</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005981021673318067</v>
+        <v>-0.005981021673318067</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.514493334530025</v>
+        <v>0.6341845796329239</v>
       </c>
       <c r="K24" t="n">
-        <v>0.322542582757416</v>
+        <v>0.4150217950496858</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7524031169261686</v>
+        <v>0.8434451906786301</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.004784817338654454</v>
+        <v>-0.004784817338654454</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -1818,37 +1818,37 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.252694361392638</v>
+        <v>1.443366474978782</v>
       </c>
       <c r="C25" t="n">
-        <v>1.256500587609899</v>
+        <v>1.443849676932804</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8536859990456502</v>
+        <v>0.7586323570891176</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03898347137894934</v>
+        <v>0.02812954779545479</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04557859813011828</v>
+        <v>0.07066675383940513</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05096151763610454</v>
+        <v>0.06528383433341886</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005382919505986261</v>
+        <v>-0.005382919505986261</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5369142527239422</v>
+        <v>0.6552605672777901</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3420176252436892</v>
+        <v>0.4360376709234103</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7635072646537917</v>
+        <v>0.8430693623456604</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.004306335604789008</v>
+        <v>-0.004306335604789008</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -1874,37 +1874,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.278585943267932</v>
+        <v>1.460914561662529</v>
       </c>
       <c r="C26" t="n">
-        <v>1.283538524241412</v>
+        <v>1.462230262486347</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9462593481947732</v>
+        <v>0.7991712562138393</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04100949906020908</v>
+        <v>0.02999380055905197</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04931335493888674</v>
+        <v>0.07378074829296281</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05415798249427437</v>
+        <v>0.06893612073757518</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004844627555387634</v>
+        <v>-0.004844627555387634</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5586707278217007</v>
+        <v>0.6755669453564597</v>
       </c>
       <c r="K26" t="n">
-        <v>0.361514760029359</v>
+        <v>0.4568901904001061</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7695336819957013</v>
+        <v>0.840265028945326</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.003875702044310108</v>
+        <v>-0.003875702044310108</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -1930,37 +1930,37 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.303465299092071</v>
+        <v>1.478470559352006</v>
       </c>
       <c r="C27" t="n">
-        <v>1.313158346400961</v>
+        <v>1.48354804875982</v>
       </c>
       <c r="D27" t="n">
-        <v>1.033441961365763</v>
+        <v>0.8370189111892765</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04303137025334425</v>
+        <v>0.03192837904028196</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05305648094215568</v>
+        <v>0.07699246193580407</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05741664574200455</v>
+        <v>0.0726322971359552</v>
       </c>
       <c r="H27" t="n">
-        <v>0.004360164799848871</v>
+        <v>-0.004360164799848871</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5803884945276153</v>
+        <v>0.6961318757890663</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3811960717619968</v>
+        <v>0.4777988945349325</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7771404931632457</v>
+        <v>0.8401476702534307</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.003488131839879097</v>
+        <v>-0.003488131839879097</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -1986,37 +1986,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1.328161722357265</v>
+        <v>1.496387312898921</v>
       </c>
       <c r="C28" t="n">
-        <v>1.340221299325089</v>
+        <v>1.50292192737043</v>
       </c>
       <c r="D28" t="n">
-        <v>1.108866416941802</v>
+        <v>0.8883460035137303</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04505490988962148</v>
+        <v>0.03392839266319089</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05681290172803373</v>
+        <v>0.08029741373806649</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06073705004789771</v>
+        <v>0.07637326541820251</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003924148319863984</v>
+        <v>-0.003924148319863984</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6023182690715869</v>
+        <v>0.7169587092266441</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4010406511717859</v>
+        <v>0.4987023882809247</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7838613548643151</v>
+        <v>0.8389528992544267</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.003139318655891188</v>
+        <v>-0.003139318655891188</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2042,37 +2042,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1.352548905286496</v>
+        <v>1.5145485123641</v>
       </c>
       <c r="C29" t="n">
-        <v>1.367212297970678</v>
+        <v>1.523325973203744</v>
       </c>
       <c r="D29" t="n">
-        <v>1.18862327910291</v>
+        <v>0.9442161510718035</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04708481494965182</v>
+        <v>0.03598940807239635</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06058668882323636</v>
+        <v>0.08369137018699034</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06411842231111395</v>
+        <v>0.08015963669911276</v>
       </c>
       <c r="H29" t="n">
-        <v>0.003531733487877586</v>
+        <v>-0.003531733487877586</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6239805890543511</v>
+        <v>0.7376100537285085</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4209724818428834</v>
+        <v>0.5195696529235408</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7891183642605929</v>
+        <v>0.8377459856772954</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.002825386790302069</v>
+        <v>-0.002825386790302069</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2098,37 +2098,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1.376481319407235</v>
+        <v>1.532886550081688</v>
       </c>
       <c r="C30" t="n">
-        <v>1.394377132767151</v>
+        <v>1.544321613921692</v>
       </c>
       <c r="D30" t="n">
-        <v>1.272300409455915</v>
+        <v>0.9985102984109062</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04912473671430395</v>
+        <v>0.03810747002643996</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0643810654705422</v>
+        <v>0.08717041321340681</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06755962560963204</v>
+        <v>0.08399185307431697</v>
       </c>
       <c r="H30" t="n">
-        <v>0.003178560139089828</v>
+        <v>-0.003178560139089828</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6456833890187885</v>
+        <v>0.7583818193952306</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4410522324279217</v>
+        <v>0.5404701410934604</v>
       </c>
       <c r="L30" t="n">
-        <v>0.795071541294269</v>
+        <v>0.8379624454574621</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.002542848111271862</v>
+        <v>-0.002542848111271862</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2154,37 +2154,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.400277661208613</v>
+        <v>1.551571604746417</v>
       </c>
       <c r="C31" t="n">
-        <v>1.420419408878028</v>
+        <v>1.565017120890053</v>
       </c>
       <c r="D31" t="n">
-        <v>1.351987712042694</v>
+        <v>1.056651689082601</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05117851065186</v>
+        <v>0.04027959159025044</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06819961563747273</v>
+        <v>0.09073148621136386</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07106031976265358</v>
+        <v>0.08787078208618301</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002860704125180845</v>
+        <v>-0.002860704125180845</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6674016709941805</v>
+        <v>0.7792285706181897</v>
       </c>
       <c r="K31" t="n">
-        <v>0.461238088840304</v>
+        <v>0.5613709288331926</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8001690402076213</v>
+        <v>0.8377647830574136</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.002288563300144676</v>
+        <v>-0.002288563300144676</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2210,37 +2210,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1.423788633028077</v>
+        <v>1.570460824927002</v>
       </c>
       <c r="C32" t="n">
-        <v>1.446632769249369</v>
+        <v>1.586436324883755</v>
       </c>
       <c r="D32" t="n">
-        <v>1.429919831450998</v>
+        <v>1.120388269883799</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05324908320672414</v>
+        <v>0.04250290958714502</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07204515763256102</v>
+        <v>0.09437156786116327</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07461979134522377</v>
+        <v>0.09179693414850051</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002574633712662761</v>
+        <v>-0.002574633712662761</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6890733744460141</v>
+        <v>0.8001374276156337</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4815240688587251</v>
+        <v>0.5822850160251748</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8048421331447198</v>
+        <v>0.8378165489981668</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.002059706970130208</v>
+        <v>-0.002059706970130208</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -2266,37 +2266,37 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.447089852586404</v>
+        <v>1.589584017848327</v>
       </c>
       <c r="C33" t="n">
-        <v>1.472575955027895</v>
+        <v>1.607990713924851</v>
       </c>
       <c r="D33" t="n">
-        <v>1.509822734758863</v>
+        <v>1.186201301762285</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0553391377341609</v>
+        <v>0.04477504981485896</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07592034563529329</v>
+        <v>0.09808806453451782</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07823751597668978</v>
+        <v>0.09577089419312133</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002317170341396484</v>
+        <v>-0.002317170341396484</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7107949525157542</v>
+        <v>0.8211570329048302</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5019227182868143</v>
+        <v>0.603227630544201</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8095207274262597</v>
+        <v>0.8383313896765793</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.001853736273117188</v>
+        <v>-0.001853736273117188</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
